--- a/testdataexel.xlsx
+++ b/testdataexel.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">aa</t>
   </si>
   <si>
-    <t xml:space="preserve">fff</t>
+    <t xml:space="preserve">fffchangechangechange</t>
   </si>
   <si>
     <t xml:space="preserve">ff</t>
@@ -500,10 +500,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -519,13 +519,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
